--- a/34-Enhanced TP System 增强TP.xlsx
+++ b/34-Enhanced TP System 增强TP.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Note标签" sheetId="1" r:id="rId1"/>
-    <sheet name="插件指令" sheetId="2" r:id="rId2"/>
-    <sheet name="插件参数" sheetId="4" r:id="rId3"/>
-    <sheet name="模式列表" sheetId="3" r:id="rId4"/>
-    <sheet name="模式参数" sheetId="5" r:id="rId5"/>
+    <sheet name="介绍" sheetId="6" r:id="rId1"/>
+    <sheet name="Note标签" sheetId="1" r:id="rId2"/>
+    <sheet name="插件指令" sheetId="2" r:id="rId3"/>
+    <sheet name="插件参数" sheetId="4" r:id="rId4"/>
+    <sheet name="模式列表" sheetId="3" r:id="rId5"/>
+    <sheet name="模式参数" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +138,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="374">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>RPG Maker MZ中的TP系统是相当有限的。
+很多TP系统都是硬编码的，让RPG Maker MZ用户几乎无法控制战斗者从特定行动和情况中获得多少TP增益。
+这个插件让你能够调整TP战斗者获得各种动作、不同TP模式的数量，并让玩家为每个角色选择和选择他们想要的TP模式。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·TP模式，允许角色和敌人有不同的方式产生TP通过战斗。</t>
+  </si>
+  <si>
+    <t>·30种预制TP模式供您使用和/或学习。</t>
+  </si>
+  <si>
+    <t>·用于更改目标TP模式的技能和项目的功能。</t>
+  </si>
+  <si>
+    <t>·在学习新技能后教授演员新TP模式的能力。</t>
+  </si>
+  <si>
+    <t>·解锁新的TP模式，使其不会成为技能和/或物品的目标。</t>
+  </si>
+  <si>
+    <t>·Trait对象（类似于状态），在应用时将强制执行特定的TP模式。</t>
+  </si>
+  <si>
+    <t>·一旦达到一定的百分比范围，TP仪表可以闪烁各种颜色。</t>
+  </si>
+  <si>
+    <t>·Scene_Skill内玩家的集成TP模式更改器。</t>
+  </si>
+  <si>
+    <t>重大变动</t>
+  </si>
+  <si>
+    <t>MaxTP 改写</t>
+  </si>
+  <si>
+    <t>之前没有任何改变MaxTP的东西，这个插件提供了改变MaxTP总数的TP模式。
+该函数已被覆盖以获得更多插件功能。</t>
+  </si>
+  <si>
+    <t>保留TP</t>
+  </si>
+  <si>
+    <t>保留TP功能已被覆盖，因此它不再由保留TP特性的存在来确定，而是由当前TP模式是否将TP保留作为其属性来确定。
+这是为了保持TP模式的一致性，并让游戏开发人员在这方面有更多的控制权。</t>
+  </si>
+  <si>
+    <t>战斗中初始TP增益 重新加工</t>
+  </si>
+  <si>
+    <t>如果“保留TP”关闭，默认情况下，战斗者通常会在战斗开始时获得随机数量的TP。
+然而，在RPG Maker MZ编辑器本身中没有控制该值的位置，因此它已被覆盖，以使您、游戏开发人员能够完全控制这一方面，以及是否需要“保留TP”标志。</t>
+  </si>
+  <si>
+    <t>受伤害增加TP</t>
+  </si>
+  <si>
+    <t>打开损坏功能已被覆盖，以删除默认TP增益方面，而支持当前配备的TP模式授予的自定义TP增益方面以保持功能受控。</t>
+  </si>
+  <si>
+    <t>精灵_仪表更改</t>
+  </si>
+  <si>
+    <t>精灵仪表已稍作更改，以允许仪表闪烁。
+现在，严格地说，当涉及到TP测量时，它们被分为不同的层。
+它们不应该有任何明显的兼容性问题，除非有插件可以完全改变TP规范。</t>
+  </si>
   <si>
     <t>General TP Mode Notetags    通用TP模式 标签</t>
   </si>
@@ -2887,7 +2961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2991,6 +3065,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3376,10 +3459,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="101.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:1">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="2:2">
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:1">
+      <c r="A13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="2:2">
+      <c r="B15" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="2:2">
+      <c r="B18" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="2:2">
+      <c r="B21" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="2:2">
+      <c r="B27" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3392,100 +3606,100 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="33" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:4">
       <c r="B3" s="23" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:4">
       <c r="B4" s="23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="33" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:4">
       <c r="B8" s="23" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="2:4">
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:4">
       <c r="B11" s="23" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C43"/>
@@ -3513,44 +3727,44 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="31" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="2:3">
       <c r="B2" s="32" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="32" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="32" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:1">
       <c r="A7" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="25.5" spans="2:3">
       <c r="B8" s="32" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3559,15 +3773,15 @@
     </row>
     <row r="11" ht="18.75" spans="1:1">
       <c r="A11" s="33" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -3580,7 +3794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E77"/>
@@ -3600,137 +3814,137 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" ht="18.75" spans="1:4">
       <c r="A1" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
     </row>
     <row r="2" s="14" customFormat="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
     <row r="3" ht="25.5" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="37.5" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="1" ht="18.75" spans="1:4">
       <c r="A11" s="16" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" s="14" customFormat="1" spans="1:4">
       <c r="A12" s="19" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
     </row>
     <row r="13" ht="27" spans="1:3">
       <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C14" s="22">
         <v>78</v>
@@ -3738,810 +3952,810 @@
     </row>
     <row r="15" ht="25.5" spans="1:3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="37.5" spans="1:3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" s="14" customFormat="1" spans="1:4">
       <c r="A19" s="19" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
     </row>
     <row r="20" ht="25.5" spans="1:3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" ht="37.5" spans="1:3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" ht="37.5" spans="1:3">
       <c r="A25" s="23" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" s="15" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="24" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
     </row>
     <row r="27" s="14" customFormat="1" spans="1:4">
       <c r="A27" s="19" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" s="14" customFormat="1" spans="1:4">
       <c r="A33" s="19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:4">
       <c r="A40" s="19" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" s="14" customFormat="1" spans="1:4">
       <c r="A44" s="19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:4">
       <c r="A48" s="19" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" s="14" customFormat="1" spans="1:4">
       <c r="A52" s="19" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" s="14" customFormat="1" spans="1:4">
       <c r="A56" s="19" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" s="14" customFormat="1" spans="1:4">
       <c r="A61" s="19" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" s="14" customFormat="1" spans="1:4">
       <c r="A66" s="19" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" s="14" customFormat="1" spans="1:4">
       <c r="A71" s="19" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" s="14" customFormat="1" spans="1:4">
       <c r="A74" s="19" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="29"/>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4556,12 +4770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4578,28 +4792,28 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -4608,22 +4822,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>78</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4631,22 +4845,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>76</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4654,22 +4868,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D5">
         <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4677,22 +4891,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D6">
         <v>72</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:7">
@@ -4700,22 +4914,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>171</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4723,22 +4937,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>165</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4746,22 +4960,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4769,22 +4983,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4792,22 +5006,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D11">
         <v>87</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:7">
@@ -4815,22 +5029,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="D12">
         <v>89</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4838,22 +5052,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4861,22 +5075,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="D14">
         <v>33</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4884,22 +5098,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D15">
         <v>48</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4907,22 +5121,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D16">
         <v>49</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4930,22 +5144,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="D17">
         <v>79</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4953,22 +5167,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D18">
         <v>176</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:7">
@@ -4976,22 +5190,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D19">
         <v>73</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:7">
@@ -4999,22 +5213,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="D20">
         <v>74</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:7">
@@ -5022,22 +5236,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="D21">
         <v>84</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:7">
@@ -5045,22 +5259,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5068,22 +5282,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D23">
         <v>78</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5091,22 +5305,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D24">
         <v>82</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:7">
@@ -5114,22 +5328,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D25">
         <v>166</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5137,22 +5351,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D26">
         <v>164</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:7">
@@ -5160,22 +5374,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D27">
         <v>311</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:7">
@@ -5183,22 +5397,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:7">
@@ -5206,22 +5420,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D29">
         <v>239</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:7">
@@ -5229,22 +5443,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="D30">
         <v>236</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:7">
@@ -5252,22 +5466,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D31">
         <v>75</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:7">
@@ -5275,22 +5489,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:AE29"/>
@@ -5316,186 +5530,186 @@
   <sheetData>
     <row r="1" spans="2:31">
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="K1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="L1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="M1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="N1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="P1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="Q1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="R1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="U1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="V1" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="W1" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="X1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="Z1" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="AA1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AB1" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="AC1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AD1" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="AE1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="2:31">
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -5503,7 +5717,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:3">
@@ -5511,7 +5725,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -5519,7 +5733,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -5527,7 +5741,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -5535,7 +5749,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -5543,7 +5757,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -5551,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -5559,7 +5773,7 @@
         <v>176</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="2:3">
@@ -5567,7 +5781,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" ht="67.5" spans="2:3">
@@ -5575,7 +5789,7 @@
         <v>74</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="2:3">
@@ -5583,7 +5797,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="2:3">
@@ -5591,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -5599,7 +5813,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -5607,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" ht="81" spans="2:3">
@@ -5615,7 +5829,7 @@
         <v>166</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -5623,7 +5837,7 @@
         <v>164</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" ht="81" spans="2:3">
@@ -5631,7 +5845,7 @@
         <v>311</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" ht="81" spans="2:3">
@@ -5639,7 +5853,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" ht="94.5" spans="2:3">
@@ -5647,7 +5861,7 @@
         <v>239</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="2:3">
@@ -5655,7 +5869,7 @@
         <v>236</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" ht="81" spans="2:3">
@@ -5663,7 +5877,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" ht="108" spans="2:3">
@@ -5671,7 +5885,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
